--- a/osdv3.xlsx
+++ b/osdv3.xlsx
@@ -27,132 +27,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
-  <si>
-    <t>certifiedCircumciser</t>
-  </si>
-  <si>
-    <t>is_there_a_trained_vmmc_assistant</t>
-  </si>
-  <si>
-    <t>darkClerk</t>
-  </si>
-  <si>
-    <t>staffingCapabilities</t>
-  </si>
-  <si>
-    <t>communityHealthNurses</t>
-  </si>
-  <si>
-    <t>vmmcMobilisers</t>
-  </si>
-  <si>
-    <t>sectionAComment</t>
-  </si>
-  <si>
-    <t>vmmcPosters</t>
-  </si>
-  <si>
-    <t>vmmcGuidelines</t>
-  </si>
-  <si>
-    <t>operatingTheatrePrivacy</t>
-  </si>
-  <si>
-    <t>runningWater</t>
-  </si>
-  <si>
-    <t>sterileKitsStorage</t>
-  </si>
-  <si>
-    <t>bins</t>
-  </si>
-  <si>
-    <t>incinerator</t>
-  </si>
-  <si>
-    <t>rbfFacilityPlan</t>
-  </si>
-  <si>
-    <t>dcWorkPlan</t>
-  </si>
-  <si>
-    <t>are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
-  </si>
-  <si>
-    <t>emergencyCart</t>
-  </si>
-  <si>
-    <t>emergencyTraining</t>
-  </si>
-  <si>
-    <t>emergencyNumber</t>
-  </si>
-  <si>
-    <t>recordsSecure</t>
-  </si>
-  <si>
-    <t>recordsFilling</t>
-  </si>
-  <si>
-    <t>copy-1-of-recordsFilling</t>
-  </si>
-  <si>
-    <t>consentForms</t>
-  </si>
-  <si>
-    <t>question1</t>
-  </si>
-  <si>
-    <t>vmmcMinutes</t>
-  </si>
-  <si>
-    <t>activityType</t>
-  </si>
-  <si>
-    <t>staffingComment</t>
-  </si>
-  <si>
-    <t>facilityComment</t>
-  </si>
-  <si>
-    <t>recordReviewComment</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Registration Education Individual_Counselling Surgery</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>RBF</t>
-  </si>
-  <si>
-    <t>Understaffing is affecting the facility in achieving high standards of VMMC procedure.</t>
-  </si>
-  <si>
-    <t>VMMC_Manual IPC_Protocols Emergency_Management_Guidelines</t>
-  </si>
-  <si>
-    <t>Waiting Registration Education History Physical_Exam HTC Surgical_Procedure Recovery</t>
-  </si>
-  <si>
-    <t>waste management done very poorly</t>
-  </si>
-  <si>
-    <t>Client_Name Client_Address Client_date_of_birth/age HIV_Testing_Offered/_HIV_Status_data Medical_Screening_and_Physical_Examination Provider_Name Post_procedure_reviews_(Day_2_and/or_7)</t>
-  </si>
-  <si>
-    <t>Facility doing well</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>pocforInstrumentReprocessiong</t>
+  </si>
+  <si>
+    <t>pocCompetency</t>
+  </si>
+  <si>
+    <t>SOPavailability</t>
+  </si>
+  <si>
+    <t>leadershipComment</t>
+  </si>
+  <si>
+    <t>instrumentsRinsed</t>
+  </si>
+  <si>
+    <t>comunicatingInstrumentProblems</t>
+  </si>
+  <si>
+    <t>prolongedInstrumentSoaking</t>
+  </si>
+  <si>
+    <t>disinfectantAvoided</t>
+  </si>
+  <si>
+    <t>instrumentsLeftOpen</t>
+  </si>
+  <si>
+    <t>transportationofInstruments</t>
+  </si>
+  <si>
+    <t>instrumentsKeptMoist</t>
+  </si>
+  <si>
+    <t>PreCleaningComment</t>
+  </si>
+  <si>
+    <t>appropriatePPE</t>
+  </si>
+  <si>
+    <t>cleanContainerWithWater</t>
+  </si>
+  <si>
+    <t>instrumentsCleaned</t>
+  </si>
+  <si>
+    <t>hingedInstrumentsOpened</t>
+  </si>
+  <si>
+    <t>instrumentsImmersedWithCleanWater</t>
+  </si>
+  <si>
+    <t>instrumentsInspectedAfterCleaning</t>
+  </si>
+  <si>
+    <t>instrumentsCleanedinArea</t>
+  </si>
+  <si>
+    <t>instrumentsAirDried</t>
+  </si>
+  <si>
+    <t>instrumentsCleaningArea</t>
+  </si>
+  <si>
+    <t>separationofInstruments</t>
+  </si>
+  <si>
+    <t>cleaningComment</t>
+  </si>
+  <si>
+    <t>properFunctionCheck</t>
+  </si>
+  <si>
+    <t>kitsCompleteness</t>
+  </si>
+  <si>
+    <t>permeabletoSterilisation</t>
+  </si>
+  <si>
+    <t>packagingEnclose</t>
+  </si>
+  <si>
+    <t>packagingMantainSterility</t>
+  </si>
+  <si>
+    <t>packageExternalChemicalIndicator</t>
+  </si>
+  <si>
+    <t>packageInternalChemicalIndicator</t>
+  </si>
+  <si>
+    <t>packageExpiryDate</t>
+  </si>
+  <si>
+    <t>packagingComment</t>
+  </si>
+  <si>
+    <t>steamSterilisation</t>
+  </si>
+  <si>
+    <t>autoclaveTraining</t>
+  </si>
+  <si>
+    <t>cycleTemperature</t>
+  </si>
+  <si>
+    <t>cycleParametersinLogBook</t>
+  </si>
+  <si>
+    <t>autoclaveSteamContact</t>
+  </si>
+  <si>
+    <t>correctCycleParametersMet</t>
+  </si>
+  <si>
+    <t>externalIndicatorsAprropriatelyChanged</t>
+  </si>
+  <si>
+    <t>noVisibleMoisture</t>
+  </si>
+  <si>
+    <t>noCompromisedIntegrity</t>
+  </si>
+  <si>
+    <t>bowie-dickTest</t>
+  </si>
+  <si>
+    <t>biologicalIndicator</t>
+  </si>
+  <si>
+    <t>distilledWater</t>
+  </si>
+  <si>
+    <t>distilledWaterInventory</t>
+  </si>
+  <si>
+    <t>annualRoutineMaintenance</t>
+  </si>
+  <si>
+    <t>flowofInstrumentsinSterilisationArea</t>
+  </si>
+  <si>
+    <t>indicatorswithinExpirationDates</t>
+  </si>
+  <si>
+    <t>reprocessingofEquipment</t>
+  </si>
+  <si>
+    <t>copy-1-of-reprocessingofEquipment</t>
+  </si>
+  <si>
+    <t>sterilisationComment</t>
+  </si>
+  <si>
+    <t>is_the_portion_of_the_transport_vehicle_where_instrument_containers_are_pla</t>
+  </si>
+  <si>
+    <t>markingofContainers</t>
+  </si>
+  <si>
+    <t>interSiteInstrumentExchangeSy</t>
+  </si>
+  <si>
+    <t>transportationComment</t>
+  </si>
+  <si>
+    <t>are_freshly_sterilized_instruments_allowed_to_cool_to_room_temperature_befo</t>
+  </si>
+  <si>
+    <t>firstInfirstOut</t>
+  </si>
+  <si>
+    <t>inventoryMonitoringSystem</t>
+  </si>
+  <si>
+    <t>comments_and_recommendations</t>
   </si>
 </sst>
 </file>
@@ -1147,15 +1198,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE$1:AE$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,355 +1235,154 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
